--- a/data/trans_camb/P37-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P37-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P37-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P37-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,64</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,67</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,38; 5,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,12; 4,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,92; 3,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,14; 3,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,0; 3,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,42; 15,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,15; 3,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,3; 3,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,09; 8,38</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,63%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,37%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,06%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,89%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>393,41%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,91%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,54%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>153,43%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,74; 215,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,51; 180,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,48; 182,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,96; 249,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,75; 247,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>148,32; 1031,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,45; 165,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,33; 147,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,98; 346,59</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,62</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,25</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,59</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 3,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,63; 1,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,15; 11,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,82; 3,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,79; 2,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,0; 16,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,3; 3,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,78; 1,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,59; 12,6</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,59%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>146,21%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,66%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,98%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>326,54%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,15%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>229,92%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,26; 109,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,92; 56,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>50,65; 300,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,96; 142,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,85; 106,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>162,12; 639,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,28; 93,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,0; 43,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>133,62; 351,16</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-2,79</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>10,72</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,76</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,96</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,32</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,78; 4,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,98; -0,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,69; 14,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,84; 3,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,74; 3,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,22; 13,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,63; 3,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,25; 0,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,91; 12,85</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,52%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,06%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>196,01%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,69%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,02%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>154,06%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,63%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,81%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>172,47%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,27; 113,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,5; -10,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>96,08; 337,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,67; 72,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,84; 57,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>90,53; 259,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,39; 69,86</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,74; 8,67</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>110,15; 253,54</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,08</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,43</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,78</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,5; 4,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,79; 3,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,69; 16,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,81; 5,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 4,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,07; 20,5</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,48; 4,1</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,02; 3,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,69; 17,7</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,33%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>162,6%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,5%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,66%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>340,55%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,32%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,18%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>235,35%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,5; 73,26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,84; 61,83</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>75,25; 288,43</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,88; 135,22</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,6; 109,7</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>204,75; 541,4</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,04; 75,73</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,49; 62,78</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>155,81; 338,63</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,63</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,71</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,18</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,06; 6,37</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,46; 5,53</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,15; 24,05</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,79; 6,78</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,09; 4,1</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,82; 24,26</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,39; 5,11</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,82; 3,6</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,67; 22,99</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,7%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,46%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>111,6%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,39%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>106,13%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,09; 40,57</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,57; 35,24</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>60,77; 158,17</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,05; 44,12</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,9; 26,73</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>66,6; 163,04</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,13; 31,23</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,29; 22,31</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>77,49; 147,46</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,04</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>28,12</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>29,65</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,9</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>29,06</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,21; 17,04</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,48; 9,87</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,43; 33,27</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,84; 8,92</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,56; 4,55</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,15; 36,05</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,88; 10,98</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,21; 4,88</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,85; 33,88</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,44%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,59%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,51%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,04%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,19%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,55%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,74; 35,08</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,61; 20,83</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,27; 70,68</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,22; 17,79</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,85; 9,32</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,56; 72,36</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,33; 22,27</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,88; 9,67</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,04; 67,74</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,77</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,44</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,28</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,81; 5,42</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,29; 3,57</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,6; 19,88</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,6; 4,2</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,58; 3,36</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,77; 28,3</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,75; 4,3</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,32; 2,83</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,64; 24,14</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,23%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>128,03%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,16%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>141,55%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,71%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>136,3%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,15; 41,44</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,07; 27,78</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>105,02; 151,89</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,08; 27,48</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,42; 22,43</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>119,25; 184,06</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,45; 30,45</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,99; 19,85</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>120,29; 164,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P37-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P37-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,64</t>
+          <t>10,11</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,67</t>
+          <t>4,59</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 3,82</t>
+          <t>-2,76; 4,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,42; 15,37</t>
+          <t>5,78; 16,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,09; 8,38</t>
+          <t>1,92; 8,3</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,06%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>393,41%</t>
+          <t>412,43%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>153,43%</t>
+          <t>150,65%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-66,48; 182,88</t>
+          <t>-67,13; 199,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>148,32; 1031,29</t>
+          <t>157,31; 1078,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>47,98; 346,59</t>
+          <t>45,92; 342,7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,62</t>
+          <t>6,58</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,25</t>
+          <t>10,77</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,59</t>
+          <t>8,8</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,15; 11,75</t>
+          <t>3,01; 11,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,0; 16,48</t>
+          <t>4,96; 15,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,59; 12,6</t>
+          <t>5,23; 11,9</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>146,21%</t>
+          <t>145,31%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>326,54%</t>
+          <t>287,12%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>229,92%</t>
+          <t>211,14%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>50,65; 300,49</t>
+          <t>46,49; 301,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>162,12; 639,94</t>
+          <t>113,63; 556,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>133,62; 351,16</t>
+          <t>110,54; 330,55</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,72</t>
+          <t>10,33</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,96</t>
+          <t>9,82</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>10,32</t>
+          <t>10,05</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,69; 14,76</t>
+          <t>6,42; 14,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,22; 13,57</t>
+          <t>7,1; 13,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,91; 12,85</t>
+          <t>7,62; 12,53</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>196,01%</t>
+          <t>188,81%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>154,06%</t>
+          <t>151,83%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>172,47%</t>
+          <t>167,96%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>96,08; 337,31</t>
+          <t>91,49; 331,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>90,53; 259,23</t>
+          <t>89,21; 254,52</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>110,15; 253,54</t>
+          <t>107,1; 246,86</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12,08</t>
+          <t>7,39</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>17,43</t>
+          <t>16,56</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>14,78</t>
+          <t>11,6</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,69; 16,18</t>
+          <t>-3,29; 14,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,07; 20,5</t>
+          <t>12,4; 19,7</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>11,69; 17,7</t>
+          <t>4,6; 15,82</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>162,6%</t>
+          <t>99,42%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>340,55%</t>
+          <t>323,5%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>235,35%</t>
+          <t>184,65%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>75,25; 288,43</t>
+          <t>-27,01; 213,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>204,75; 541,4</t>
+          <t>189,72; 518,45</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>155,81; 338,63</t>
+          <t>71,1; 280,19</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>18,63</t>
+          <t>18,28</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>19,71</t>
+          <t>19,39</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>19,18</t>
+          <t>18,84</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>13,15; 24,05</t>
+          <t>12,93; 23,87</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>14,82; 24,26</t>
+          <t>14,59; 23,95</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>15,67; 22,99</t>
+          <t>15,3; 22,55</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>100,7%</t>
+          <t>98,82%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>111,6%</t>
+          <t>109,79%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>106,13%</t>
+          <t>104,27%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>60,77; 158,17</t>
+          <t>59,39; 155,11</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>66,6; 163,04</t>
+          <t>65,29; 160,69</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>77,49; 147,46</t>
+          <t>75,73; 145,25</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>11,04</t>
+          <t>17,93</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>7,16</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>28,12</t>
+          <t>33,54</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>3,8</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>29,65</t>
+          <t>38,04</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>6,9</t>
+          <t>10,23</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>29,06</t>
+          <t>36,73</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>4,21; 17,04</t>
+          <t>9,4; 25,82</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 9,87</t>
+          <t>-0,95; 15,7</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>23,43; 33,27</t>
+          <t>26,81; 40,13</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 8,92</t>
+          <t>-4,74; 10,19</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 4,55</t>
+          <t>-8,58; 5,57</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>25,15; 36,05</t>
+          <t>27,84; 52,32</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,88; 10,98</t>
+          <t>4,8; 15,79</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 4,88</t>
+          <t>-2,9; 7,57</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>25,85; 33,88</t>
+          <t>29,54; 48,28</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>21,44%</t>
+          <t>45,26%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>18,09%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>54,59%</t>
+          <t>84,68%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-2,51%</t>
+          <t>-3,18%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>56,04%</t>
+          <t>85,85%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>24,26%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>55,55%</t>
+          <t>87,15%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>7,74; 35,08</t>
+          <t>22,01; 73,8</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 20,83</t>
+          <t>-2,33; 44,48</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>42,27; 70,68</t>
+          <t>61,06; 117,25</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 17,79</t>
+          <t>-9,83; 25,04</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-11,85; 9,32</t>
+          <t>-18,15; 13,39</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>44,56; 72,36</t>
+          <t>61,02; 131,41</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>5,33; 22,27</t>
+          <t>10,77; 40,01</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 9,67</t>
+          <t>-6,49; 19,64</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>47,04; 67,74</t>
+          <t>67,09; 123,54</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>17,77</t>
+          <t>20,11</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>22,44</t>
+          <t>24,91</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>20,28</t>
+          <t>23,08</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,81; 5,42</t>
+          <t>-7,59; 10,8</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,29; 3,57</t>
+          <t>-9,43; 7,58</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>15,6; 19,88</t>
+          <t>13,54; 27,72</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,6; 4,2</t>
+          <t>-4,4; 11,02</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 3,36</t>
+          <t>-10,08; 5,88</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>19,77; 28,3</t>
+          <t>18,36; 30,7</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>1,75; 4,3</t>
+          <t>-3,42; 7,64</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,83</t>
+          <t>-7,25; 4,4</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>18,64; 24,14</t>
+          <t>18,82; 28,06</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>27,23%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>-1,8%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>128,03%</t>
+          <t>29,55%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>15,16%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>-3,18%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>141,55%</t>
+          <t>40,33%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>20,71%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>-2,56%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>136,3%</t>
+          <t>35,95%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-10,68; 17,27</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-13,03; 12,01</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>18,27; 44,94</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-6,66; 19,04</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-15,48; 10,35</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>27,07; 54,39</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-5,02; 12,51</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-10,94; 7,11</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>27,76; 46,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>3,78</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>1,86</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>15,12</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>2,4</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>1,44</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>23,19</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>3,08</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>1,65</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>19,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>1,81; 5,42</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>0,29; 3,57</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>8,56; 18,03</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>0,6; 4,2</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-0,58; 3,36</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>18,68; 34,08</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>1,75; 4,3</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>0,32; 2,83</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>16,01; 26,37</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>27,23%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>13,43%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>108,98%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>15,16%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>9,08%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>146,28%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>20,71%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>11,11%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>129,58%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>12,15; 41,44</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>2,07; 27,78</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>105,02; 151,89</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>63,78; 134,46</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>3,08; 27,48</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-3,42; 22,43</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>119,25; 184,06</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>114,63; 217,53</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>11,45; 30,45</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>1,99; 19,85</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>120,29; 164,29</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>104,37; 175,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P37-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P37-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 5,38</t>
+          <t>-0,36; 5,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 4,58</t>
+          <t>-0,91; 4,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 4,79</t>
+          <t>-2,71; 4,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 3,26</t>
+          <t>-1,37; 3,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 3,93</t>
+          <t>-0,85; 3,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,78; 16,0</t>
+          <t>5,73; 16,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 3,6</t>
+          <t>-0,17; 3,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 3,29</t>
+          <t>-0,34; 3,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,92; 8,3</t>
+          <t>1,75; 8,3</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,74; 215,82</t>
+          <t>-8,88; 212,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-26,51; 180,35</t>
+          <t>-22,24; 184,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-67,13; 199,94</t>
+          <t>-68,65; 200,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,96; 249,09</t>
+          <t>-43,3; 212,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-34,75; 247,03</t>
+          <t>-28,57; 287,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>157,31; 1078,62</t>
+          <t>155,11; 1106,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 165,09</t>
+          <t>-5,97; 154,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 147,41</t>
+          <t>-11,28; 139,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>45,92; 342,7</t>
+          <t>38,99; 330,92</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 3,79</t>
+          <t>-1,05; 4,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 1,9</t>
+          <t>-2,55; 1,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,01; 11,52</t>
+          <t>2,72; 11,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 3,78</t>
+          <t>-1,02; 4,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 2,84</t>
+          <t>-1,71; 2,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,96; 15,1</t>
+          <t>4,88; 15,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 3,2</t>
+          <t>-0,27; 3,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 1,43</t>
+          <t>-1,73; 1,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,23; 11,9</t>
+          <t>5,35; 11,94</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,26; 109,38</t>
+          <t>-19,86; 110,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-49,92; 56,73</t>
+          <t>-46,23; 59,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>46,49; 301,06</t>
+          <t>50,65; 315,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,96; 142,01</t>
+          <t>-20,21; 157,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-36,85; 106,95</t>
+          <t>-36,9; 114,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>113,63; 556,46</t>
+          <t>102,29; 546,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 93,08</t>
+          <t>-6,16; 94,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-36,0; 43,83</t>
+          <t>-32,98; 47,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>110,54; 330,55</t>
+          <t>111,53; 338,21</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 4,63</t>
+          <t>-0,52; 4,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,98; -0,54</t>
+          <t>-4,93; -0,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,42; 14,32</t>
+          <t>6,8; 14,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 3,57</t>
+          <t>-1,97; 3,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 3,01</t>
+          <t>-2,89; 2,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,1; 13,38</t>
+          <t>6,58; 13,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 3,5</t>
+          <t>-0,57; 3,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 0,38</t>
+          <t>-3,32; 0,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,62; 12,53</t>
+          <t>7,66; 12,53</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-12,27; 113,78</t>
+          <t>-8,0; 113,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-74,5; -10,78</t>
+          <t>-73,53; -13,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>91,49; 331,45</t>
+          <t>98,73; 349,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-24,67; 72,63</t>
+          <t>-26,04; 67,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,84; 57,2</t>
+          <t>-36,49; 58,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>89,21; 254,52</t>
+          <t>79,78; 269,07</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 69,86</t>
+          <t>-9,07; 65,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-46,74; 8,67</t>
+          <t>-47,35; 8,86</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>107,1; 246,86</t>
+          <t>105,71; 240,16</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 4,2</t>
+          <t>-2,14; 4,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 3,61</t>
+          <t>-2,86; 3,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 14,24</t>
+          <t>-2,25; 14,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 5,18</t>
+          <t>-0,76; 5,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 4,33</t>
+          <t>-1,02; 4,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,4; 19,7</t>
+          <t>12,54; 19,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 4,1</t>
+          <t>-0,95; 3,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 3,29</t>
+          <t>-0,91; 3,56</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,6; 15,82</t>
+          <t>3,54; 15,76</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-29,5; 73,26</t>
+          <t>-24,19; 73,79</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-29,84; 61,83</t>
+          <t>-31,86; 65,07</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-27,01; 213,46</t>
+          <t>-22,02; 214,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-15,88; 135,22</t>
+          <t>-10,72; 134,98</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,6; 109,7</t>
+          <t>-15,98; 124,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>189,72; 518,45</t>
+          <t>189,28; 532,89</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 75,73</t>
+          <t>-12,79; 68,25</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 62,78</t>
+          <t>-13,12; 66,6</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>71,1; 280,19</t>
+          <t>64,33; 277,47</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 6,37</t>
+          <t>-4,62; 6,22</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 5,53</t>
+          <t>-4,98; 5,57</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>12,93; 23,87</t>
+          <t>12,83; 23,6</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 6,78</t>
+          <t>-4,05; 6,44</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 4,1</t>
+          <t>-5,73; 4,56</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>14,59; 23,95</t>
+          <t>14,35; 24,23</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 5,11</t>
+          <t>-2,82; 4,95</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 3,6</t>
+          <t>-4,03; 3,47</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>15,3; 22,55</t>
+          <t>15,12; 22,37</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-23,09; 40,57</t>
+          <t>-21,77; 38,48</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-21,57; 35,24</t>
+          <t>-23,48; 36,29</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>59,39; 155,11</t>
+          <t>56,91; 149,27</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-19,05; 44,12</t>
+          <t>-20,65; 42,39</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-29,9; 26,73</t>
+          <t>-27,88; 31,16</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>65,29; 160,69</t>
+          <t>66,96; 165,52</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 31,23</t>
+          <t>-14,33; 31,36</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-19,29; 22,31</t>
+          <t>-20,47; 22,15</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>75,73; 145,25</t>
+          <t>74,15; 143,23</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>9,4; 25,82</t>
+          <t>9,58; 25,5</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 15,7</t>
+          <t>-0,42; 14,76</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>26,81; 40,13</t>
+          <t>26,67; 40,66</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 10,19</t>
+          <t>-3,85; 10,54</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 5,57</t>
+          <t>-8,17; 6,21</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>27,84; 52,32</t>
+          <t>26,84; 50,73</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,8; 15,79</t>
+          <t>4,9; 15,69</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 7,57</t>
+          <t>-3,24; 8,18</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>29,54; 48,28</t>
+          <t>29,48; 47,44</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>22,01; 73,8</t>
+          <t>22,82; 73,03</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 44,48</t>
+          <t>-1,06; 42,16</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>61,06; 117,25</t>
+          <t>58,73; 116,85</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 25,04</t>
+          <t>-7,96; 25,66</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-18,15; 13,39</t>
+          <t>-16,93; 15,16</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>61,02; 131,41</t>
+          <t>59,07; 132,0</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>10,77; 40,01</t>
+          <t>11,03; 40,03</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 19,64</t>
+          <t>-7,15; 20,89</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>67,09; 123,54</t>
+          <t>65,84; 118,59</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 10,8</t>
+          <t>-7,71; 10,27</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 7,58</t>
+          <t>-9,09; 6,95</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>13,54; 27,72</t>
+          <t>12,93; 27,27</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 11,02</t>
+          <t>-4,65; 10,76</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 5,88</t>
+          <t>-10,02; 5,61</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>18,36; 30,7</t>
+          <t>18,82; 30,75</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 7,64</t>
+          <t>-3,96; 7,54</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 4,4</t>
+          <t>-7,49; 4,17</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>18,82; 28,06</t>
+          <t>18,56; 27,94</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 17,27</t>
+          <t>-10,61; 16,37</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-13,03; 12,01</t>
+          <t>-12,59; 10,97</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>18,27; 44,94</t>
+          <t>17,45; 43,39</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 19,04</t>
+          <t>-7,02; 18,96</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-15,48; 10,35</t>
+          <t>-15,11; 9,7</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>27,07; 54,39</t>
+          <t>28,18; 54,75</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 12,51</t>
+          <t>-5,82; 12,23</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-10,94; 7,11</t>
+          <t>-11,03; 6,92</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>27,76; 46,7</t>
+          <t>26,77; 46,54</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>1,81; 5,42</t>
+          <t>1,81; 5,52</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>0,29; 3,57</t>
+          <t>0,16; 3,54</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>8,56; 18,03</t>
+          <t>8,72; 18,08</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>0,6; 4,2</t>
+          <t>0,42; 4,21</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 3,36</t>
+          <t>-0,46; 3,34</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>18,68; 34,08</t>
+          <t>19,03; 34,67</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>1,75; 4,3</t>
+          <t>1,83; 4,41</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,83</t>
+          <t>0,35; 2,85</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>16,01; 26,37</t>
+          <t>15,72; 25,55</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>12,15; 41,44</t>
+          <t>12,08; 41,7</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>2,07; 27,78</t>
+          <t>1,03; 27,47</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>63,78; 134,46</t>
+          <t>64,99; 135,45</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>3,08; 27,48</t>
+          <t>2,69; 28,77</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 22,43</t>
+          <t>-2,84; 22,62</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>114,63; 217,53</t>
+          <t>117,58; 225,88</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>11,45; 30,45</t>
+          <t>11,77; 30,65</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>1,99; 19,85</t>
+          <t>2,22; 19,99</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>104,37; 175,99</t>
+          <t>102,76; 171,68</t>
         </is>
       </c>
     </row>
